--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158858.401079605</v>
+        <v>2156601.379170522</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836229</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>177.6570986393366</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.4752263841244</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>26.91186510830047</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.0251356438857</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>96.36163317610399</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>126.7477612906591</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
-        <v>86.8846229844749</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.380068175847811</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.75769145492384</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>113.5103646250815</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>109.7472660450983</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>251.8135122828323</v>
+        <v>10.40839188245969</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.45932786808076</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>116.3127963634638</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>54.12472935312962</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.3524204098381</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>133.7117411111175</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>120.2123300365238</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.9321526700473</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>65.92009399575491</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46.81382800565968</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>204.8429981867597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292609</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247474</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734099625</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>53.18823704331167</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.04318711639743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292609</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247749</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734099625</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>164.6532255566606</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581635</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345256</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164183</v>
       </c>
       <c r="S37" t="n">
-        <v>130.6379157370291</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172072</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354223</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481853</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006315</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292609</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247749</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734099625</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3673,13 +3673,13 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.050671640434</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124559</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3910,13 +3910,13 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404366</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572838</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2462.668786761507</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2072.529454785695</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.7382812066351</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2614.93669941912</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2614.93669941912</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2361.174914057211</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2030.112026713641</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1677.343371443527</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1303.877613182447</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>913.7382812066351</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600565</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600565</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600565</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600565</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2368.607930856721</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694741</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,10 +5024,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,22 +5042,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>1622.425187676631</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5081,10 +5081,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>270.9417306852384</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C13" t="n">
-        <v>102.0055477573316</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D13" t="n">
-        <v>102.0055477573316</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E13" t="n">
-        <v>102.0055477573316</v>
+        <v>171.0738540998327</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0055477573316</v>
+        <v>171.0738540998327</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998327</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5197,22 +5197,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570256</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590083</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154782</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,25 +5279,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2016.310259422546</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N14" t="n">
-        <v>2996.062531649192</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3499.035002528529</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4212.390089975475</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.2179684131233</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C16" t="n">
-        <v>210.2179684131233</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>210.2179684131233</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>210.2179684131232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>210.2179684131232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5443,7 +5443,7 @@
         <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.866433243363</v>
+        <v>562.5269503710301</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>811.558487554775</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1676.07730320813</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2209.609207880054</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>3189.361480106701</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4411.329534748787</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4659.615896504469</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,40 +5592,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>389.6913148129297</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,19 +5674,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1158.199027910488</v>
+        <v>988.5900842668128</v>
       </c>
       <c r="X19" t="n">
-        <v>930.2094770124706</v>
+        <v>760.6005333687955</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4168978689405</v>
+        <v>539.8079542252655</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>913.1101661838568</v>
+        <v>836.0059675195635</v>
       </c>
       <c r="L20" t="n">
-        <v>1364.144379432265</v>
+        <v>1287.040180767972</v>
       </c>
       <c r="M20" t="n">
-        <v>1897.67628410419</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5829,28 +5829,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>590.439631979499</v>
+        <v>343.0033510423849</v>
       </c>
       <c r="C22" t="n">
-        <v>590.439631979499</v>
+        <v>343.0033510423849</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3229925671633</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E22" t="n">
-        <v>292.4098989847702</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>145.5199514868598</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>145.5199514868598</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>145.5199514868598</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851286</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.870226851286</v>
+        <v>791.7854810839324</v>
       </c>
       <c r="X22" t="n">
-        <v>992.8806759532688</v>
+        <v>563.795930185915</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.0880968097388</v>
+        <v>343.0033510423849</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
         <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2628.734306600802</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>3175.513123659584</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O23" t="n">
-        <v>3678.485594538921</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P23" t="n">
-        <v>4391.840681985867</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713.5009252592421</v>
+        <v>580.1131475839755</v>
       </c>
       <c r="C25" t="n">
-        <v>544.5647423313352</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="D25" t="n">
-        <v>394.4481029189994</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="E25" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.55611102446</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.138940987499</v>
+        <v>1028.895277625523</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894818</v>
+        <v>800.9057267275057</v>
       </c>
       <c r="Y25" t="n">
-        <v>895.1493900894818</v>
+        <v>580.1131475839755</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>975.9286436089831</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1840.447459262338</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2373.979363934262</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993045</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6303,40 +6303,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>682.2576395672673</v>
+        <v>393.5907674431234</v>
       </c>
       <c r="C28" t="n">
-        <v>513.3214566393607</v>
+        <v>393.5907674431234</v>
       </c>
       <c r="D28" t="n">
-        <v>363.2048172270253</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>363.2048172270253</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6385,13 +6385,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.724257814702</v>
+        <v>1386.474555727518</v>
       </c>
       <c r="V28" t="n">
-        <v>1131.039769608815</v>
+        <v>1131.790067521631</v>
       </c>
       <c r="W28" t="n">
-        <v>1131.039769608815</v>
+        <v>842.3728974846708</v>
       </c>
       <c r="X28" t="n">
-        <v>903.0502187107975</v>
+        <v>614.3833465866535</v>
       </c>
       <c r="Y28" t="n">
-        <v>682.2576395672673</v>
+        <v>393.5907674431234</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>702.9183254305503</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1153.952538678959</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1687.484443350884</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540.4807149410336</v>
+        <v>439.1815555980841</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>439.1815555980841</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>289.0649161857484</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>289.0649161857484</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>289.0649161857484</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>289.0649161857484</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>142.8477294036062</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1460.328479849781</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W31" t="n">
-        <v>1170.911309812821</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X31" t="n">
-        <v>942.9217589148035</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="Y31" t="n">
-        <v>722.1291797712734</v>
+        <v>620.8300204283238</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277726</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176186</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1650.184003770973</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.715908442896</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N32" t="n">
-        <v>3163.468180669542</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O32" t="n">
-        <v>4043.432830998996</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4438.207197356174</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973169</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161899</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549386</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494831</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763681</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089862</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468538</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320233</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008793</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426847</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142065</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635545</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.8772203134</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447816</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216073</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487872</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282339</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517385</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4168978689406</v>
+        <v>464.9024566190095</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410337</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D34" t="n">
-        <v>390.364075528698</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104702</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104702</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104702</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230346</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024459</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.138940987498</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894807</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.0653626991802</v>
+        <v>646.5509214492492</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,40 +6923,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074196</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972656</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.77835475062</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580448</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807094</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.05340068643</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4338.827767043607</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,16 +7017,16 @@
         <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193612</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320262</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454342</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>556.0994848553755</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="C37" t="n">
-        <v>388.2302264612117</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612117</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125617</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308511</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152494</v>
+        <v>346.762235315249</v>
       </c>
       <c r="L37" t="n">
-        <v>664.367726499267</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7111,34 +7111,34 @@
         <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1832.751517345412</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1832.751517345412</v>
+        <v>1464.626824743984</v>
       </c>
       <c r="U37" t="n">
-        <v>1544.715575004798</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1291.098011332654</v>
+        <v>922.9733187312263</v>
       </c>
       <c r="W37" t="n">
-        <v>1002.747765829437</v>
+        <v>634.6230732280086</v>
       </c>
       <c r="X37" t="n">
-        <v>775.8251394651626</v>
+        <v>407.7004468637342</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.0994848553755</v>
+        <v>407.7004468637342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277726</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176186</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770973</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442896</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3163.468180669542</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4043.432830998996</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4438.207197356174</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4686.493559111856</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,40 +7251,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390144</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193612</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320262</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454342</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215041</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416704</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774081</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430881</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932511</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490193</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499218</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901877</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860148</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032968</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719034</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123955</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829556</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122055</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195772</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937958</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036704</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7415,22 +7415,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1797.117834600129</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272054</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7479,22 +7479,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932533</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160452</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3070.887536710053</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O44" t="n">
-        <v>3573.86000758939</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,25 +8690,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>19.79750571619297</v>
+        <v>308.4529749292122</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.2514630883921</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2514630883925</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>60.01894884691895</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>297.8289162490814</v>
+        <v>50.84927212317581</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>201.3549853008785</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.70465870845388</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>192.185308577135</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>420.2833968404719</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>85.51392558917576</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>135.6385654278953</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.86979469804325</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.749800387391588e-12</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>232.1124963760977</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.2530576400301</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>32.86979469804268</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>411.0304280899001</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>294.8707872801648</v>
+        <v>249.451501837949</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>159.6457400831804</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939694</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>31.24465028923933</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>108.8373873069965</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.70948605375867</v>
+        <v>276.1146064541313</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89309254175736</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>170.2102019731272</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>92.30923329343955</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>152.8112572254735</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25.20871798640742</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>220.2917442098579</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>49.53859240417841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>47.29464513706827</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>114.0585840553162</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.9321526700474</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.5414662356974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935316</v>
+        <v>14.12249933687123</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298067</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706226</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143249</v>
+        <v>95.29616512143261</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164174</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>58.07485430600717</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877635</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.63424829224823e-12</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
@@ -26323,37 +26323,37 @@
         <v>555914.5016417763</v>
       </c>
       <c r="F2" t="n">
-        <v>555914.5016417762</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417762</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="H2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417768</v>
       </c>
       <c r="I2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417762</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="M2" t="n">
-        <v>556337.558755917</v>
+        <v>556337.5587559169</v>
       </c>
       <c r="N2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>2.546973009186703e-11</v>
+        <v>1.447951764016602e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414952</v>
+        <v>36735.10506414965</v>
       </c>
       <c r="O3" t="n">
-        <v>6.160516932141036e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918989</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231919</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.0529481147</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740903</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300831</v>
+        <v>-281446.4052300828</v>
       </c>
       <c r="C6" t="n">
         <v>308521.4739844613</v>
@@ -26528,40 +26528,40 @@
         <v>308521.4739844614</v>
       </c>
       <c r="E6" t="n">
-        <v>-285994.9229245337</v>
+        <v>-286062.1184147598</v>
       </c>
       <c r="F6" t="n">
-        <v>441382.4910688726</v>
+        <v>441315.2955786469</v>
       </c>
       <c r="G6" t="n">
-        <v>441382.4910688726</v>
+        <v>441315.2955786471</v>
       </c>
       <c r="H6" t="n">
-        <v>441382.4910688731</v>
+        <v>441315.2955786474</v>
       </c>
       <c r="I6" t="n">
-        <v>441382.4910688729</v>
+        <v>441315.2955786471</v>
       </c>
       <c r="J6" t="n">
-        <v>264959.2718762797</v>
+        <v>264892.0763860538</v>
       </c>
       <c r="K6" t="n">
-        <v>441382.4910688728</v>
+        <v>441315.295578647</v>
       </c>
       <c r="L6" t="n">
-        <v>441382.4910688738</v>
+        <v>441315.2955786469</v>
       </c>
       <c r="M6" t="n">
-        <v>310881.8701585785</v>
+        <v>310816.1855866175</v>
       </c>
       <c r="N6" t="n">
-        <v>404055.8095293383</v>
+        <v>404055.809529338</v>
       </c>
       <c r="O6" t="n">
-        <v>440790.9145934871</v>
+        <v>440790.9145934875</v>
       </c>
       <c r="P6" t="n">
-        <v>440790.9145934878</v>
+        <v>440790.9145934876</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,13 +26765,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>1.809939705020753e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="N2" t="n">
-        <v>45.9188813301869</v>
+        <v>45.91888133018707</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>1.809939705020753e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>192.0740020391325</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>45.83457587492647</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>147.503847700671</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.55951770820911</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>154.8625343321853</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>242.9833393878099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
-        <v>138.8250324045623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.931610675384945e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405664</v>
+        <v>1.05625528840549</v>
       </c>
     </row>
     <row r="38">
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844664</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003806</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623187</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574988</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095017</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746408</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781686</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806942</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502564</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798529</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752251</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233471</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970245</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002923</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987484</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238312</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.44815837589849</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742014</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702022</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.049502431643</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802167</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712208</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553033</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112289</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844664</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003806</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623187</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574988</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095017</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746408</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781686</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806942</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502564</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798529</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752251</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353183</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233471</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970245</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002923</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987484</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238312</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.44815837589849</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742014</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702022</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.049502431643</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802167</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712208</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553033</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112289</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844664</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003806</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623187</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574988</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095017</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746408</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781686</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806942</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502564</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798529</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752251</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026464</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233471</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970245</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002923</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987484</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238312</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.44815837589849</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742014</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702022</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.049502431643</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802167</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712208</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553033</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112289</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>558.7186215464197</v>
+        <v>847.374090759439</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35647,28 +35647,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>854.0890375411587</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>446.0457678921116</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>532.442749643793</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>119.6321473891437</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>635.0202028044818</v>
+        <v>388.0405586785763</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>600.1169715202503</v>
       </c>
       <c r="Q23" t="n">
-        <v>330.4989635121733</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>529.3765951325355</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36604,13 +36604,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>972.5852322533834</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
         <v>344.8569461675401</v>
@@ -36768,7 +36768,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
         <v>78.39423853789366</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>422.7052121445763</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.883616140786</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427819</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302261</v>
+        <v>674.5596812581221</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248949</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509639</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193713</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>283.6640995017623</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222455</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013287</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525801</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859621</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306611</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701979</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934836</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675398</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226395</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451102</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427819</v>
+        <v>687.7026107684298</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230586</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248949</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882185</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193713</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>384.0473624437491</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222455</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609592</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013287</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525801</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859621</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147176</v>
+        <v>46.63467190147172</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586035</v>
+        <v>320.8136274586036</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818892</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559456</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
         <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629918</v>
+        <v>79.45049382629915</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.883616140786</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427819</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302261</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248949</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509639</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193713</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037191</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48299324026723</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597975</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013287</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525801</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859621</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629119</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120761</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861324</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>866.6205424822323</v>
+        <v>519.8757797192576</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>693.6327734995367</v>
+        <v>648.2134880573209</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
